--- a/python_excel/01.엑셀자동화기초/교육이수현황.xlsx
+++ b/python_excel/01.엑셀자동화기초/교육이수현황.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="8535" windowHeight="12960" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="8535" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="마케팅팀" sheetId="5" r:id="rId1"/>
@@ -18,9 +18,47 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>성명</t>
+  </si>
+  <si>
+    <t>1월</t>
+  </si>
+  <si>
+    <t>리신</t>
+  </si>
+  <si>
+    <t>이즈리얼</t>
+  </si>
+  <si>
+    <t>야스오</t>
+  </si>
+  <si>
+    <t>요네</t>
+  </si>
+  <si>
+    <t>피즈</t>
+  </si>
+  <si>
+    <t>샤코</t>
+  </si>
+  <si>
+    <t>합계</t>
+  </si>
+  <si>
+    <t>2월</t>
+  </si>
+  <si>
+    <t>3월</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -36,13 +74,29 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="13"/>
+      <color rgb="FF19FAFA"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7D00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -59,8 +113,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -357,14 +414,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>15.5</v>
+      </c>
+      <c r="C6">
+        <v>15.5</v>
+      </c>
+      <c r="D6">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <f>SUM(B2:B7)</f>
+        <v>40.5</v>
+      </c>
+      <c r="C8">
+        <f>SUM(C2:C7)</f>
+        <v>40.5</v>
+      </c>
+      <c r="D8">
+        <f>SUM(D2:D7)</f>
+        <v>40.5</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -398,7 +574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
